--- a/acervo separado/Acervo_C_AmostrasFragmentos.xlsx
+++ b/acervo separado/Acervo_C_AmostrasFragmentos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{200ED642-08D7-4DAD-94C2-2A3430A3734E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB268359-1D36-4C43-9841-011B59B5B149}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="155">
   <si>
     <t>Ordem de Registro</t>
   </si>
@@ -486,6 +486,9 @@
   </si>
   <si>
     <t>6,8 cm</t>
+  </si>
+  <si>
+    <t>"?"</t>
   </si>
 </sst>
 </file>
@@ -870,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,6 +1728,9 @@
       <c r="L19" t="s">
         <v>27</v>
       </c>
+      <c r="M19" t="s">
+        <v>154</v>
+      </c>
       <c r="O19" t="s">
         <v>21</v>
       </c>

--- a/acervo separado/Acervo_C_AmostrasFragmentos.xlsx
+++ b/acervo separado/Acervo_C_AmostrasFragmentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\acervo separado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB268359-1D36-4C43-9841-011B59B5B149}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FEECC3-F2EE-49B9-868E-797013AA387A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$Q$26</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$Q$26</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="156">
   <si>
     <t>Ordem de Registro</t>
   </si>
@@ -101,12 +108,6 @@
     <t>s/a</t>
   </si>
   <si>
-    <t>Marfim</t>
-  </si>
-  <si>
-    <t>Madeira</t>
-  </si>
-  <si>
     <t>NL</t>
   </si>
   <si>
@@ -125,9 +126,6 @@
     <t>Franja (amarela e vermelha)</t>
   </si>
   <si>
-    <t>Algodão acetinado</t>
-  </si>
-  <si>
     <t>100,0 x 6,0 cm</t>
   </si>
   <si>
@@ -137,9 +135,6 @@
     <t>Galão com franja</t>
   </si>
   <si>
-    <t>Linha enrolada com fio metálico</t>
-  </si>
-  <si>
     <t>10,3 x 211,0 cm</t>
   </si>
   <si>
@@ -152,9 +147,6 @@
     <t>Renda de bico (cor de chá)</t>
   </si>
   <si>
-    <t>Valenciana/linha</t>
-  </si>
-  <si>
     <t>90,0 x 6,0 cm</t>
   </si>
   <si>
@@ -215,9 +207,6 @@
     <t>Tecido (fundo dourado - flores estilizadas cor de vinho)</t>
   </si>
   <si>
-    <t>Tear jacar/fio de seda adamascado</t>
-  </si>
-  <si>
     <t>73,0 x 54,0 cm</t>
   </si>
   <si>
@@ -227,9 +216,6 @@
     <t>Tecido (fundo preto - ramagens policromadas)</t>
   </si>
   <si>
-    <t>Tafetá de seda pura</t>
-  </si>
-  <si>
     <t>254,0 x 124,5 cm</t>
   </si>
   <si>
@@ -239,9 +225,6 @@
     <t>Tecido (vários pedaços costurados à máquina - fundo cereja)</t>
   </si>
   <si>
-    <t>Tapeçaria/gorgurão de seda bordado</t>
-  </si>
-  <si>
     <t>190,5 x 156,0 cm</t>
   </si>
   <si>
@@ -260,9 +243,6 @@
     <t>Tecido listrado com franjas</t>
   </si>
   <si>
-    <t>Tecido tingido</t>
-  </si>
-  <si>
     <t>4,2 cm</t>
   </si>
   <si>
@@ -278,9 +258,6 @@
     <t>Tecido (fundo dourado - flores estilizadas vinho)</t>
   </si>
   <si>
-    <t>Fio de seda/adamascado</t>
-  </si>
-  <si>
     <t>2139</t>
   </si>
   <si>
@@ -296,9 +273,6 @@
     <t>Cabo "?"  (atributos musicais)</t>
   </si>
   <si>
-    <t>Esmalte/prata</t>
-  </si>
-  <si>
     <t>4,7 x 2,0 cm</t>
   </si>
   <si>
@@ -311,9 +285,6 @@
     <t>Concha</t>
   </si>
   <si>
-    <t>Madrepérola</t>
-  </si>
-  <si>
     <t>4,8 x 19,6 x 14,7 cm</t>
   </si>
   <si>
@@ -326,9 +297,6 @@
     <t>Objeto não identificado (forma irregular)</t>
   </si>
   <si>
-    <t>Âmbar</t>
-  </si>
-  <si>
     <t>6,5 x 4,2 cm</t>
   </si>
   <si>
@@ -359,18 +327,12 @@
     <t>Seixo rolado</t>
   </si>
   <si>
-    <t>Pedra</t>
-  </si>
-  <si>
     <t>6,8 x 3,4 cm</t>
   </si>
   <si>
     <t>1505</t>
   </si>
   <si>
-    <t>Seda adamascada</t>
-  </si>
-  <si>
     <t>153,0 x 223,0 cm</t>
   </si>
   <si>
@@ -489,6 +451,54 @@
   </si>
   <si>
     <t>"?"</t>
+  </si>
+  <si>
+    <t>mattec_19</t>
+  </si>
+  <si>
+    <t>mattec_149</t>
+  </si>
+  <si>
+    <t>mattec_302</t>
+  </si>
+  <si>
+    <t>mattec_290</t>
+  </si>
+  <si>
+    <t>mattec_282</t>
+  </si>
+  <si>
+    <t>mattec_289</t>
+  </si>
+  <si>
+    <t>mattec_292</t>
+  </si>
+  <si>
+    <t>mattec_297</t>
+  </si>
+  <si>
+    <t>mattec_105</t>
+  </si>
+  <si>
+    <t>mattec_154</t>
+  </si>
+  <si>
+    <t>mattec_102</t>
+  </si>
+  <si>
+    <t>mattec_177</t>
+  </si>
+  <si>
+    <t>mattec_20</t>
+  </si>
+  <si>
+    <t>mattec_181</t>
+  </si>
+  <si>
+    <t>mattec_236</t>
+  </si>
+  <si>
+    <t>mattec_274</t>
   </si>
 </sst>
 </file>
@@ -874,7 +884,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="H2" sqref="H2:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,13 +962,13 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="S1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -966,22 +976,22 @@
         <v>1511</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
@@ -990,7 +1000,7 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
@@ -999,10 +1009,10 @@
         <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="S2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1010,22 +1020,22 @@
         <v>1507</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -1034,7 +1044,7 @@
         <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
@@ -1043,10 +1053,10 @@
         <v>21</v>
       </c>
       <c r="R3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="S3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1054,22 +1064,22 @@
         <v>1496</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
         <v>18</v>
@@ -1078,7 +1088,7 @@
         <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
         <v>20</v>
@@ -1087,10 +1097,10 @@
         <v>21</v>
       </c>
       <c r="R4" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="S4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1098,22 +1108,22 @@
         <v>1495</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
@@ -1122,7 +1132,7 @@
         <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s">
         <v>20</v>
@@ -1131,10 +1141,10 @@
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="S5" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1142,23 +1152,23 @@
         <v>1494</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
       <c r="H6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" t="s">
         <v>42</v>
       </c>
-      <c r="I6" t="s">
-        <v>47</v>
-      </c>
       <c r="J6" t="s">
         <v>18</v>
       </c>
@@ -1166,7 +1176,7 @@
         <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
         <v>20</v>
@@ -1175,10 +1185,10 @@
         <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="S6" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1186,22 +1196,22 @@
         <v>1492</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
@@ -1210,7 +1220,7 @@
         <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s">
         <v>20</v>
@@ -1219,10 +1229,10 @@
         <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="S7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1230,22 +1240,22 @@
         <v>1492</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
@@ -1254,7 +1264,7 @@
         <v>19</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
         <v>20</v>
@@ -1263,10 +1273,10 @@
         <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="S8" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1274,20 +1284,20 @@
         <v>1492</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" t="s">
         <v>49</v>
       </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
       <c r="J9" t="s">
         <v>18</v>
       </c>
@@ -1295,7 +1305,7 @@
         <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M9" t="s">
         <v>20</v>
@@ -1304,10 +1314,10 @@
         <v>21</v>
       </c>
       <c r="R9" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="S9" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1315,19 +1325,19 @@
         <v>1492</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
@@ -1336,7 +1346,7 @@
         <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M10" t="s">
         <v>20</v>
@@ -1345,10 +1355,10 @@
         <v>21</v>
       </c>
       <c r="R10" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="S10" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1356,22 +1366,22 @@
         <v>1497</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
@@ -1380,7 +1390,7 @@
         <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M11" t="s">
         <v>20</v>
@@ -1389,10 +1399,10 @@
         <v>21</v>
       </c>
       <c r="R11" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="S11" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1400,19 +1410,19 @@
         <v>1497</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J12" t="s">
         <v>18</v>
@@ -1421,7 +1431,7 @@
         <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M12" t="s">
         <v>20</v>
@@ -1430,10 +1440,10 @@
         <v>21</v>
       </c>
       <c r="R12" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="S12" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1441,22 +1451,22 @@
         <v>1502</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J13" t="s">
         <v>18</v>
@@ -1465,7 +1475,7 @@
         <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M13" t="s">
         <v>20</v>
@@ -1474,10 +1484,10 @@
         <v>21</v>
       </c>
       <c r="R13" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="S13" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1485,22 +1495,22 @@
         <v>1491</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J14" t="s">
         <v>18</v>
@@ -1509,7 +1519,7 @@
         <v>19</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M14" t="s">
         <v>20</v>
@@ -1518,10 +1528,10 @@
         <v>21</v>
       </c>
       <c r="R14" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="S14" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1529,22 +1539,22 @@
         <v>1503</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
@@ -1553,7 +1563,7 @@
         <v>19</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M15" t="s">
         <v>20</v>
@@ -1562,10 +1572,10 @@
         <v>21</v>
       </c>
       <c r="R15" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="S15" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1573,22 +1583,22 @@
         <v>1501</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>
@@ -1597,7 +1607,7 @@
         <v>19</v>
       </c>
       <c r="L16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M16" t="s">
         <v>20</v>
@@ -1606,10 +1616,10 @@
         <v>21</v>
       </c>
       <c r="R16" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="S16" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -1617,19 +1627,19 @@
         <v>1501</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J17" t="s">
         <v>18</v>
@@ -1638,7 +1648,7 @@
         <v>19</v>
       </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M17" t="s">
         <v>20</v>
@@ -1647,10 +1657,10 @@
         <v>21</v>
       </c>
       <c r="R17" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="S17" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -1658,22 +1668,22 @@
         <v>1502</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J18" t="s">
         <v>18</v>
@@ -1682,7 +1692,7 @@
         <v>19</v>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M18" t="s">
         <v>23</v>
@@ -1691,10 +1701,10 @@
         <v>21</v>
       </c>
       <c r="R18" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="S18" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -1702,22 +1712,22 @@
         <v>2139</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s">
         <v>18</v>
@@ -1726,19 +1736,19 @@
         <v>19</v>
       </c>
       <c r="L19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M19" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="O19" t="s">
         <v>21</v>
       </c>
       <c r="R19" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="S19" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -1746,22 +1756,22 @@
         <v>1536</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="I20" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s">
         <v>18</v>
@@ -1770,7 +1780,7 @@
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M20" t="s">
         <v>20</v>
@@ -1782,10 +1792,10 @@
         <v>22</v>
       </c>
       <c r="R20" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="S20" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -1793,22 +1803,22 @@
         <v>1551</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="I21" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s">
         <v>18</v>
@@ -1817,7 +1827,7 @@
         <v>19</v>
       </c>
       <c r="L21" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="M21" t="s">
         <v>20</v>
@@ -1829,13 +1839,13 @@
         <v>24</v>
       </c>
       <c r="R21" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="S21" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="T21" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -1843,22 +1853,22 @@
         <v>1520</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="I22" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s">
         <v>18</v>
@@ -1867,7 +1877,7 @@
         <v>19</v>
       </c>
       <c r="L22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M22" t="s">
         <v>23</v>
@@ -1879,10 +1889,10 @@
         <v>24</v>
       </c>
       <c r="R22" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="S22" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -1890,22 +1900,22 @@
         <v>1513</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="I23" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s">
         <v>18</v>
@@ -1914,7 +1924,7 @@
         <v>19</v>
       </c>
       <c r="L23" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="M23" t="s">
         <v>23</v>
@@ -1926,10 +1936,10 @@
         <v>24</v>
       </c>
       <c r="R23" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="S23" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -1937,22 +1947,22 @@
         <v>1514</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
         <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="I24" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J24" t="s">
         <v>18</v>
@@ -1961,7 +1971,7 @@
         <v>19</v>
       </c>
       <c r="L24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M24" t="s">
         <v>23</v>
@@ -1973,10 +1983,10 @@
         <v>24</v>
       </c>
       <c r="R24" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="S24" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -1984,22 +1994,22 @@
         <v>1517</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="I25" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="J25" t="s">
         <v>18</v>
@@ -2008,7 +2018,7 @@
         <v>19</v>
       </c>
       <c r="L25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M25" t="s">
         <v>23</v>
@@ -2020,10 +2030,10 @@
         <v>24</v>
       </c>
       <c r="R25" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="S25" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2031,19 +2041,19 @@
         <v>1505</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="I26" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="J26" t="s">
         <v>18</v>
@@ -2052,16 +2062,16 @@
         <v>19</v>
       </c>
       <c r="L26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M26" t="s">
         <v>20</v>
       </c>
       <c r="R26" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="S26" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
